--- a/data/quarterly_shocks_AUS.xlsx
+++ b/data/quarterly_shocks_AUS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1395001177904476</v>
+        <v>-0.004739260866827267</v>
       </c>
     </row>
     <row r="3">
@@ -469,810 +469,788 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2969739652076697</v>
+        <v>-0.01194664645579203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.179341208436945</v>
+        <v>-0.002258249291871672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1596395692915919</v>
+        <v>0.0203566002794262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1477694140852155</v>
+        <v>0.01691399345752377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06450647534137488</v>
+        <v>0.0406971664029268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1503356499771513</v>
+        <v>0.06675379425142157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.002172429873616</v>
+        <v>-0.03486890844848055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5214792355626052</v>
+        <v>-0.0191714759926876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1802454026604394</v>
+        <v>-0.007569254409319139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07081692295507482</v>
+        <v>-0.0008051471035429339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05600920315655955</v>
+        <v>-0.0036266134203475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313476448316526</v>
+        <v>-0.0346107602739647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09355407582548968</v>
+        <v>-0.0003647771170994296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07828133054138912</v>
+        <v>0.001823403185341064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2439460571518559</v>
+        <v>-0.000399189012530506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01577642356155686</v>
+        <v>0.03064551655092188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1841175391245286</v>
+        <v>0.001709962340397238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2491031300841939</v>
+        <v>-0.001488206372120969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8530208906166515</v>
+        <v>0.001305829990442957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1432702881257223</v>
+        <v>-0.03033331254723405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08336139545033204</v>
+        <v>0.006751987552642134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1019477486664163</v>
+        <v>-0.0103195447518296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8137854609015172</v>
+        <v>-0.01803337069679335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6709643338770258</v>
+        <v>-0.0240482526936212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6994428897366826</v>
+        <v>-0.03383209414086327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B28" t="n">
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2844386059577412</v>
+        <v>-0.207437509019274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1792089693162247</v>
+        <v>0.1685179598429348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.002655581174397033</v>
+        <v>0.0387720554634715</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1622644407723564</v>
+        <v>-0.03507804968142587</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4190621257124031</v>
+        <v>-0.009462151537709303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03787669838883906</v>
+        <v>-0.06360301516382566</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1674647227492442</v>
+        <v>0.02945869019485453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09579302645044883</v>
+        <v>0.003194846775386333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1256769470966645</v>
+        <v>-0.02171917110487806</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1941913001591189</v>
+        <v>-0.0075062351385305</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08073486198269347</v>
+        <v>-0.02756997217903178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2220408201301538</v>
+        <v>-0.03047701866701014</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B40" t="n">
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2843656401294581</v>
+        <v>-0.03066979709712514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1278140594711985</v>
+        <v>0.06669769684404064</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3316202111835883</v>
+        <v>-0.009506673238740363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.06849279634302267</v>
+        <v>0.023364962987077</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.4288748029900684</v>
+        <v>-0.0007041072120317996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.5294787580788274</v>
+        <v>0.01872107263379565</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.100338372488018</v>
+        <v>-0.0177893906595021</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.03809112854765337</v>
+        <v>0.02279953986076947</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="n">
         <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01151451355365649</v>
+        <v>0.0087593643538472</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005016908113475438</v>
+        <v>0.0075950358713036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2387428189691694</v>
+        <v>0.00132975434098792</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199339612640633</v>
+        <v>0.003775470945794947</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B52" t="n">
         <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.09477296596334857</v>
+        <v>0.004858046556991167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0204999461509203</v>
+        <v>0.003004337637710901</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1497914676891198</v>
+        <v>0.03802878612740767</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1030131777103094</v>
+        <v>0.01738058398764043</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B56" t="n">
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1832220187985456</v>
+        <v>0.03135040227546287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5670219063770077</v>
+        <v>0.0094228259850608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.533539465520505</v>
+        <v>-0.0267298967152486</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2346851006051291</v>
+        <v>-0.01647688698675413</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B60" t="n">
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.09560714395296566</v>
+        <v>0.004636066349316954</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2491929326454034</v>
+        <v>0.002724627479826017</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2144352591490299</v>
+        <v>-0.0001183915858551757</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2084461108281606</v>
+        <v>-0.001074620177498969</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B64" t="n">
         <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03493048515785797</v>
+        <v>4.94962201844543e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1984855747971359</v>
+        <v>-0.0003872654054307455</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02077424348125117</v>
+        <v>-0.0001184668024195385</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06255622720541254</v>
+        <v>0.0004934021675000028</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03208588287062499</v>
+        <v>-0.0001949615029347847</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.3282094630211674</v>
+        <v>0.004722577775968351</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.04454351860262066</v>
+        <v>0.04284479502328777</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07195721614827727</v>
+        <v>0.003173945619475534</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B72" t="n">
         <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03165220253951156</v>
+        <v>-0.009729173632727767</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3334191846338541</v>
+        <v>0.03669913426772903</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="n">
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.03050305055089335</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.3177007832502928</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.1472551666950632</v>
+        <v>0.0013710353099937</v>
       </c>
     </row>
   </sheetData>
